--- a/Consumer/Constellation Brands.xlsx
+++ b/Consumer/Constellation Brands.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE71D8-99A4-104E-879F-85A51E015B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D9719-EBCE-AB41-991B-AC99562B5971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2529,36 +2529,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>261.52499999999998</v>
+    <v>261.32</v>
     <v>208.12</v>
-    <v>1.0301</v>
-    <v>-0.04</v>
-    <v>-1.7809999999999999E-4</v>
+    <v>1.0344</v>
+    <v>3.14</v>
+    <v>1.3526E-2</v>
+    <v>-0.28999999999999998</v>
+    <v>-1.2330000000000002E-3</v>
     <v>USD</v>
-    <v>Constellation Brands, Inc. is an international beverage alcohol company. The Company is a producer and marketer of beer, wine and spirits with operations in the United States, Mexico, New Zealand and Italy. Its segments include Beer, Wine and Spirits, and Canopy. It sells a number of brands in the import and craft beer categories, including Corona Extra, Corona Light, Modelo Especial, Corona Premier and others. It offers a portfolio of wine and spirits brands, which include 7 Moons, Cook’s California Champagne, Cooper &amp; Thief, Robert Mondavi Winery, Meiomi, High West, Casa Noble, The Prisoner Wine Company, Copper &amp; Kings, Casa Noble. The Canopy Equity Method Investment makes up the Canopy segment. It operates over four distilleries in the United States for the production of its spirits; two facilities for High West whiskey, one facility for Copper &amp; Kings American brandies, and one facility for Nelsons Green Brier bourbon and whiskey products.</v>
-    <v>10000</v>
+    <v>Constellation Brands, Inc. is an international beverage and alcohol company. The Company is a producer and marketer of beer, wine, and spirits with operations in the United States, Mexico, New Zealand, and Italy. Its segments include Beer, Wine and Spirits, and Canopy. It sells a number of brands in the import and craft beer categories, including Corona Extra, Corona Light, Modelo Especial, Corona Premier, Victoria, Pacifico, and others. It offers a portfolio of wine and spirits brands, which include Cook’s California Champagne, Mount Veeder, My Favorite Neighbor, Casa Noble, Mi CAMPO, Kim Crawford, Ruffino, Robert Mondavi Winery, Copper &amp; Kings, and others. The Canopy Equity Method Investment makes up the Canopy segment. It operates over five distilleries in the United States for the production of its spirits; two facilities for High West whiskey, one facility each for Copper &amp; Kings American brandies, Nelson’s Green Brier bourbon and whiskey products, and Austin Cocktails.</v>
+    <v>10700</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>BUILDING 100, 207 HIGH POINT DRIVE, VICTOR, NY, 14564 US</v>
-    <v>226.7</v>
+    <v>236.09</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45026.971482001565</v>
+    <v>45065.994681735938</v>
     <v>0</v>
-    <v>223.04</v>
-    <v>41438295720</v>
+    <v>233</v>
+    <v>43112650000</v>
     <v>CONSTELLATION BRANDS, INC.</v>
     <v>CONSTELLATION BRANDS, INC.</v>
-    <v>225.95</v>
+    <v>233.38</v>
     <v>608.33489999999995</v>
-    <v>224.64</v>
-    <v>224.6</v>
-    <v>184498200</v>
+    <v>232.15</v>
+    <v>235.29</v>
+    <v>235</v>
+    <v>183232000</v>
     <v>STZ</v>
     <v>CONSTELLATION BRANDS, INC. (XNYS:STZ)</v>
-    <v>1713486</v>
-    <v>1206970</v>
+    <v>1365628</v>
+    <v>1001474</v>
     <v>1972</v>
   </rv>
   <rv s="2">
@@ -2590,6 +2593,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2610,6 +2615,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2626,7 +2632,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2637,13 +2643,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,13 +2718,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2760,6 +2775,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2767,6 +2785,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3128,10 +3149,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ12" sqref="AQ12"/>
+      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5346,15 +5367,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.6978466244175632</v>
+        <v>4.8876676454249663</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>-1025.7003891089109</v>
+        <v>-1067.1448019801981</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>24.686224067675443</v>
+        <v>25.683694745621352</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15024,7 +15045,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0301</v>
+        <v>1.0344</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15275,7 +15296,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.5295805000000002E-2</v>
+        <v>8.5480920000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15650,7 +15671,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.2008782380755274</v>
+        <v>0.19459490763443843</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15776,7 +15797,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>41438295720</v>
+        <v>43112650000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15902,7 +15923,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.7991217619244726</v>
+        <v>0.80540509236556157</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16028,7 +16049,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>51854795720</v>
+        <v>53529150000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16318,7 +16339,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.8183876496847637E-2</v>
+        <v>6.8868218186059149E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16516,7 +16537,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>56198424426.702812</v>
+        <v>55321732226.894768</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16547,7 +16568,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>58566098397.200531</v>
+        <v>57689406197.392487</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16557,7 +16578,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.8183876496847637E-2</v>
+        <v>6.8868218186059149E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16572,7 +16593,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>48875103423.119698</v>
+        <v>48101244248.82151</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16599,7 +16620,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>38658003423.119698</v>
+        <v>37884144248.82151</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16617,7 +16638,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>283.61278590716813</v>
+        <v>277.93540122901192</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16626,7 +16647,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>224.6</v>
+        <v>235.29</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16656,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>0.26274615274785451</v>
+        <v>0.18124612703052367</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Constellation Brands.xlsx
+++ b/Consumer/Constellation Brands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D9719-EBCE-AB41-991B-AC99562B5971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE1A49-638C-CE4A-81C5-0AE8F39D0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2531,37 +2531,34 @@
     <v>Powered by Refinitiv</v>
     <v>261.32</v>
     <v>208.12</v>
-    <v>1.0344</v>
-    <v>3.14</v>
-    <v>1.3526E-2</v>
-    <v>-0.28999999999999998</v>
-    <v>-1.2330000000000002E-3</v>
+    <v>1.024</v>
+    <v>-2.82</v>
+    <v>-1.1498E-2</v>
     <v>USD</v>
     <v>Constellation Brands, Inc. is an international beverage and alcohol company. The Company is a producer and marketer of beer, wine, and spirits with operations in the United States, Mexico, New Zealand, and Italy. Its segments include Beer, Wine and Spirits, and Canopy. It sells a number of brands in the import and craft beer categories, including Corona Extra, Corona Light, Modelo Especial, Corona Premier, Victoria, Pacifico, and others. It offers a portfolio of wine and spirits brands, which include Cook’s California Champagne, Mount Veeder, My Favorite Neighbor, Casa Noble, Mi CAMPO, Kim Crawford, Ruffino, Robert Mondavi Winery, Copper &amp; Kings, and others. The Canopy Equity Method Investment makes up the Canopy segment. It operates over five distilleries in the United States for the production of its spirits; two facilities for High West whiskey, one facility each for Copper &amp; Kings American brandies, Nelson’s Green Brier bourbon and whiskey products, and Austin Cocktails.</v>
     <v>10700</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>BUILDING 100, 207 HIGH POINT DRIVE, VICTOR, NY, 14564 US</v>
-    <v>236.09</v>
+    <v>207 High Point Drive, Building 100, VICTOR, NY, 14564 US</v>
+    <v>245.62</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45065.994681735938</v>
+    <v>45100.784430717191</v>
     <v>0</v>
-    <v>233</v>
-    <v>43112650000</v>
+    <v>241.41</v>
+    <v>44426125835</v>
     <v>CONSTELLATION BRANDS, INC.</v>
     <v>CONSTELLATION BRANDS, INC.</v>
-    <v>233.38</v>
+    <v>244.51</v>
     <v>608.33489999999995</v>
-    <v>232.15</v>
-    <v>235.29</v>
-    <v>235</v>
-    <v>183232000</v>
+    <v>245.27</v>
+    <v>242.45</v>
+    <v>183238300</v>
     <v>STZ</v>
     <v>CONSTELLATION BRANDS, INC. (XNYS:STZ)</v>
-    <v>1365628</v>
-    <v>1001474</v>
+    <v>337746</v>
+    <v>1191741</v>
     <v>1972</v>
   </rv>
   <rv s="2">
@@ -2593,8 +2590,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2615,7 +2610,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2632,7 +2626,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2643,16 +2637,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2718,19 +2709,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2775,9 +2760,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2785,9 +2767,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3149,10 +3128,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
+      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5367,15 +5346,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.8876676454249663</v>
+        <v>5.0365759900007934</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>-1067.1448019801981</v>
+        <v>-1099.6565800742574</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>25.683694745621352</v>
+        <v>26.466177668890744</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15045,7 +15024,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0344</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15296,7 +15275,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.5480920000000002E-2</v>
+        <v>8.5033200000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15671,7 +15650,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.19459490763443843</v>
+        <v>0.18993437752851536</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15797,7 +15776,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43112650000</v>
+        <v>44426125835</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15923,7 +15902,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.80540509236556157</v>
+        <v>0.81006562247148461</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16049,7 +16028,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>53529150000</v>
+        <v>54842625835</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16339,7 +16318,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.8868218186059149E-2</v>
+        <v>6.8903408283149559E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16537,7 +16516,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>55321732226.894768</v>
+        <v>55277389949.053406</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16568,7 +16547,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>57689406197.392487</v>
+        <v>57645063919.551125</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16578,7 +16557,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.8868218186059149E-2</v>
+        <v>6.8903408283149559E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16593,7 +16572,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>48101244248.82151</v>
+        <v>48062103959.556946</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16620,7 +16599,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>37884144248.82151</v>
+        <v>37845003959.556946</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16638,7 +16617,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>277.93540122901192</v>
+        <v>277.64825017369134</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16626,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>235.29</v>
+        <v>242.45</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16635,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>0.18124612703052367</v>
+        <v>0.14517735687230915</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
